--- a/files/Cases/BankAccount/BA.xlsx
+++ b/files/Cases/BankAccount/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dilekozturk/git/esg-with-feature-expressions/files/Cases/BankAccount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF17B229-A7BE-8E45-AAEA-833B3EE9D82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E44F3E-E3E1-104B-9E71-1DF81E0417AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{D8786CAF-B19F-EC47-87E1-7521EA0631E7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="153">
   <si>
     <t>P10</t>
   </si>
@@ -711,12 +711,18 @@
   <si>
     <t>deposit, withdraw, cancelDeposit, credit, interest, cancelWithdraw, dailyLimit, interestEstimation</t>
   </si>
+  <si>
+    <t>Number of Test Sequences</t>
+  </si>
+  <si>
+    <t>Number of Events</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,6 +773,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -821,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -842,30 +854,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -962,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,25 +976,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,30 +988,30 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1047,13 +1020,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1070,7 +1043,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,22 +1052,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1061,7 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,7 +1073,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,7 +1088,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,7 +1109,7 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,7 +1130,7 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,7 +1148,7 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,7 +1166,7 @@
     <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,7 +1190,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,7 +1200,7 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1254,6 +1212,81 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,41 +1610,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="36"/>
+    <col min="9" max="9" width="16.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I1" s="1"/>
@@ -1621,76 +1654,76 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34">
         <v>23.09</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="30">
+      <c r="C2" s="15"/>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
         <v>25.09</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="39">
+      <c r="G2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="34">
         <v>23.98</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="37"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <v>19.510000000000002</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <v>21.09</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="34">
         <v>21.25</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <v>16.97</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="34">
         <v>23.18</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="34">
         <v>22.87</v>
       </c>
       <c r="I4" s="1"/>
@@ -1700,50 +1733,50 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>16.88</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>22.11</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="34">
         <v>22.34</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="1"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <v>16.47</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="34">
         <v>23.16</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="34">
         <v>25.38</v>
       </c>
       <c r="I6" s="1"/>
@@ -1753,5000 +1786,5490 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <v>16.14</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="34">
         <v>23.27</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="34">
         <v>22.26</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="1"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>17.64</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="34">
         <v>22.74</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="34">
         <v>21.88</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <v>18.97</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <v>23.12</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="34">
         <v>21.33</v>
       </c>
-      <c r="J9" s="38"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <v>20.67</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="37">
         <v>22.06</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="34">
         <v>21.44</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <v>16.170000000000002</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="34">
         <v>22.39</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="34">
         <v>21.75</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="21">
         <f>AVERAGE(B2:B11)</f>
         <v>18.251000000000005</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="21">
         <f>AVERAGE(E2:E11)</f>
         <v>22.821000000000005</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="21">
         <f>AVERAGE(H2:H11)</f>
         <v>22.448</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
       <c r="G13" s="8"/>
       <c r="H13" s="2"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="42">
+      <c r="A15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37">
         <v>19.07</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
+      <c r="D15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34">
         <v>23.88</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="42">
+      <c r="G15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="37">
         <v>23.1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>17.47</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="37">
         <v>22.06</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="34">
         <v>21.78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>18.45</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="34">
         <v>21.25</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="37">
         <v>21.07</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <v>18.29</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="34">
         <v>22.21</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="34">
         <v>22.16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <v>17.260000000000002</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="34">
         <v>21.78</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="37">
         <v>22.11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="37">
         <v>18.11</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="34">
         <v>29.45</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="34">
         <v>22.27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <v>18.39</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="34">
         <v>21.74</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="37">
         <v>21.09</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="34">
         <v>19.190000000000001</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="37">
         <v>22.11</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="34">
         <v>21.65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="37">
         <v>21.07</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="37">
         <v>20.07</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="34">
         <v>23.56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="34">
         <v>17.98</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="34">
         <v>27.47</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="37">
         <v>23.04</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="21">
         <f>AVERAGE(B15:B24)</f>
         <v>18.527999999999999</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="21">
         <f>AVERAGE(E15:E24)</f>
         <v>23.202000000000002</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="21">
         <f>AVERAGE(H15:H24)</f>
         <v>22.183</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="2"/>
-      <c r="G26" s="35"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="39">
+      <c r="A28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="34">
         <v>21.22</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="42">
+      <c r="C28" s="19"/>
+      <c r="D28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
         <v>22.04</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39">
+      <c r="G28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="34">
         <v>21.22</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="34">
         <v>19.350000000000001</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="34">
         <v>24.25</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="34">
         <v>19.28</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="34">
         <v>19.149999999999999</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="34">
         <v>21.93</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="37">
         <v>20.04</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="34">
         <v>20.47</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="34">
         <v>22.28</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="34">
         <v>19.57</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="34">
         <v>19.59</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="34">
         <v>24.42</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="34">
         <v>19.579999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="34">
         <v>19.79</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="37">
         <v>22.04</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="34">
         <v>19.39</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="34">
         <v>19.54</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="34">
         <v>22.28</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="34">
         <v>19.350000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="34">
         <v>18.829999999999998</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="34">
         <v>22.48</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="34">
         <v>18.21</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="34">
         <v>18.54</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="34">
         <v>22.77</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="34">
         <v>20.95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="34">
         <v>21.96</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="34">
         <v>21.82</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="34">
         <v>19.82</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="21">
         <f>AVERAGE(B28:B37)</f>
         <v>19.844000000000001</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="21">
         <f>AVERAGE(E28:E37)</f>
         <v>22.631</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="21">
         <f>AVERAGE(H28:H37)</f>
         <v>19.741</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="35"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="35"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="39">
+      <c r="A41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="34">
         <v>21.64</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="39">
+      <c r="C41" s="19"/>
+      <c r="D41" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="34">
         <v>23.36</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="39">
+      <c r="G41" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="34">
         <v>21.59</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="34">
         <v>21.55</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="34">
         <v>22.52</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="34">
         <v>18.91</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="34">
         <v>20.440000000000001</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="37">
         <v>22.03</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="34">
         <v>20.39</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="34">
         <v>21.69</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="34">
         <v>24.52</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="34">
         <v>19.87</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="34">
         <v>22.36</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="34">
         <v>23.47</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="37">
         <v>19.05</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="34">
         <v>20.92</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="37">
         <v>24.02</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="34">
         <v>21.91</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="37">
         <v>20.07</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="34">
         <v>25.48</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="37">
         <v>20.010000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="34">
         <v>21.26</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="34">
         <v>22.64</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="37">
         <v>19.02</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="39">
+      <c r="B49" s="34">
         <v>20.440000000000001</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="37">
         <v>23.11</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="34">
         <v>20.61</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="34">
         <v>20.74</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="34">
         <v>24.25</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="34">
         <v>19.89</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="21">
         <f>AVERAGE(B41:B50)</f>
         <v>21.110999999999997</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="32" t="s">
+      <c r="C51" s="19"/>
+      <c r="D51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="21">
         <f>AVERAGE(E41:E50)</f>
         <v>23.54</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="21">
         <f>AVERAGE(H41:H50)</f>
         <v>20.125</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="24"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
       <c r="E52" s="2"/>
       <c r="G52" s="8"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="21" t="s">
+      <c r="C53" s="19"/>
+      <c r="D53" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="42">
+      <c r="A54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="37">
         <v>22.08</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="39">
+      <c r="D54" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="34">
         <v>22.17</v>
       </c>
-      <c r="G54" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="39">
+      <c r="G54" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
         <v>21.15</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="34">
         <v>20.72</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="34">
         <v>19.75</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="39">
+      <c r="H55" s="34">
         <v>20.260000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="34">
         <v>22.38</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="23" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="34">
         <v>21.15</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="37">
         <v>22.05</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="42">
+      <c r="B57" s="37">
         <v>22.12</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="34">
         <v>19.84</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="39">
+      <c r="H57" s="34">
         <v>23.77</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="39">
+      <c r="B58" s="34">
         <v>22.34</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="37">
         <v>20.09</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="39">
+      <c r="H58" s="34">
         <v>20.58</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="39">
+      <c r="B59" s="34">
         <v>21.55</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="34">
         <v>21.49</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="39">
+      <c r="H59" s="34">
         <v>22.51</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="39">
+      <c r="B60" s="34">
         <v>20.93</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="23" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="37">
         <v>19.03</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="42">
+      <c r="H60" s="37">
         <v>21.05</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="39">
+      <c r="B61" s="34">
         <v>21.14</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="23" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="39">
+      <c r="E61" s="34">
         <v>19.75</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="39">
+      <c r="H61" s="34">
         <v>20.56</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="34">
         <v>21.99</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="23" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="34">
         <v>23.69</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H62" s="34">
         <v>20.46</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="39">
+      <c r="B63" s="34">
         <v>23.91</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="23" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="34">
         <v>26.99</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="37">
         <v>20.010000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="21">
         <f>AVERAGE(B54:B63)</f>
         <v>21.916</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="32" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="21">
         <f>AVERAGE(E54:E63)</f>
         <v>21.395</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H64" s="21">
         <f>AVERAGE(H54:H63)</f>
         <v>21.240000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="24"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
       <c r="E65" s="2"/>
       <c r="G65" s="8"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="21" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="39">
+      <c r="A67" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="34">
         <v>24.27</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="39">
+      <c r="C67" s="19"/>
+      <c r="D67" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="34">
         <v>20.76</v>
       </c>
-      <c r="G67" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="39">
+      <c r="G67" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="34">
         <v>23.55</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="39">
+      <c r="B68" s="34">
         <v>22.41</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="23" t="s">
+      <c r="C68" s="19"/>
+      <c r="D68" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="34">
         <v>20.56</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="39">
+      <c r="H68" s="34">
         <v>20.74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="39">
+      <c r="B69" s="34">
         <v>21.98</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="23" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="42">
+      <c r="E69" s="37">
         <v>22.11</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="39">
+      <c r="H69" s="34">
         <v>20.68</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="37">
         <v>22.06</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="34">
         <v>22.25</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="39">
+      <c r="H70" s="34">
         <v>21.53</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="39">
+      <c r="B71" s="34">
         <v>21.76</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="23" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="37">
         <v>20.100000000000001</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="39">
+      <c r="H71" s="34">
         <v>21.65</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="42">
+      <c r="B72" s="37">
         <v>23.06</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="34">
         <v>21.16</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H72" s="34">
         <v>21.63</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="39">
+      <c r="B73" s="34">
         <v>22.37</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="23" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="34">
         <v>20.27</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="39">
+      <c r="H73" s="34">
         <v>21.54</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="39">
+      <c r="B74" s="34">
         <v>21.76</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="23" t="s">
+      <c r="C74" s="19"/>
+      <c r="D74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="34">
         <v>23.23</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="39">
+      <c r="H74" s="34">
         <v>23.53</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="39">
+      <c r="B75" s="34">
         <v>22.53</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="23" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="34">
         <v>20.84</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="39">
+      <c r="H75" s="34">
         <v>21.15</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="42">
+      <c r="B76" s="37">
         <v>26.05</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="34">
         <v>21.27</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="37">
         <v>21.05</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="21">
         <f>AVERAGE(B67:B76)</f>
         <v>22.824999999999999</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="32" t="s">
+      <c r="C77" s="19"/>
+      <c r="D77" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="26">
+      <c r="E77" s="21">
         <f>AVERAGE(E67:E76)</f>
         <v>21.255000000000003</v>
       </c>
-      <c r="G77" s="32" t="s">
+      <c r="G77" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H77" s="26">
+      <c r="H77" s="21">
         <f>AVERAGE(H67:H76)</f>
         <v>21.705000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="24"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
       <c r="E78" s="2"/>
       <c r="G78" s="8"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="40" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="39">
+      <c r="A80" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="34">
         <v>25.45</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="40" t="s">
+      <c r="C80" s="19"/>
+      <c r="D80" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="7">
         <v>23.42</v>
       </c>
-      <c r="G80" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="39">
+      <c r="G80" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="34">
         <v>20.96</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="39">
+      <c r="B81" s="34">
         <v>27.99</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="40" t="s">
+      <c r="C81" s="19"/>
+      <c r="D81" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="7">
         <v>20.83</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="39">
+      <c r="H81" s="34">
         <v>21.67</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="39">
+      <c r="B82" s="34">
         <v>18.739999999999998</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="40" t="s">
+      <c r="C82" s="19"/>
+      <c r="D82" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="35">
         <v>22.03</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="37">
         <v>23.09</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="42">
+      <c r="B83" s="37">
         <v>17.04</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="40">
+      <c r="E83" s="35">
         <v>22.02</v>
       </c>
-      <c r="G83" s="23" t="s">
+      <c r="G83" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="39">
+      <c r="H83" s="34">
         <v>21.35</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="42">
+      <c r="B84" s="37">
         <v>18.04</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="7">
         <v>21.99</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H84" s="39">
+      <c r="H84" s="34">
         <v>21.85</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="42">
+      <c r="B85" s="37">
         <v>18.03</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="35">
         <v>22.06</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="39">
+      <c r="H85" s="34">
         <v>23.13</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="39">
+      <c r="B86" s="34">
         <v>19.13</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="40" t="s">
+      <c r="C86" s="19"/>
+      <c r="D86" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="7">
         <v>20.91</v>
       </c>
-      <c r="G86" s="23" t="s">
+      <c r="G86" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="39">
+      <c r="H86" s="34">
         <v>20.74</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="39">
+      <c r="B87" s="34">
         <v>21.81</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="40" t="s">
+      <c r="C87" s="19"/>
+      <c r="D87" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="35">
         <v>21.03</v>
       </c>
-      <c r="G87" s="23" t="s">
+      <c r="G87" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="39">
+      <c r="H87" s="34">
         <v>20.86</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="39">
+      <c r="B88" s="34">
         <v>17.84</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="40" t="s">
+      <c r="C88" s="19"/>
+      <c r="D88" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="7">
         <v>21.17</v>
       </c>
-      <c r="G88" s="23" t="s">
+      <c r="G88" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="39">
+      <c r="H88" s="34">
         <v>21.85</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="39">
+      <c r="B89" s="34">
         <v>17.670000000000002</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="40" t="s">
+      <c r="C89" s="19"/>
+      <c r="D89" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="35">
         <v>21.07</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="39">
+      <c r="H89" s="34">
         <v>21.32</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B90" s="26">
+      <c r="B90" s="21">
         <f>AVERAGE(B80:B89)</f>
         <v>20.173999999999999</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="41" t="s">
+      <c r="C90" s="19"/>
+      <c r="D90" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="12">
         <f>AVERAGE(E80:E89)</f>
         <v>21.652999999999999</v>
       </c>
-      <c r="G90" s="32" t="s">
+      <c r="G90" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H90" s="26">
+      <c r="H90" s="21">
         <f>AVERAGE(H80:H89)</f>
         <v>21.681999999999995</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="24"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="8"/>
       <c r="E91" s="2"/>
       <c r="G91" s="8"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="21" t="s">
+      <c r="C92" s="19"/>
+      <c r="D92" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G92" s="21" t="s">
+      <c r="G92" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="39">
+      <c r="A93" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="34">
         <v>20.239999999999998</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="39">
+      <c r="C93" s="19"/>
+      <c r="D93" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="34">
         <v>22.99</v>
       </c>
-      <c r="G93" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93" s="39">
+      <c r="G93" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="34">
         <v>25.91</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="39">
+      <c r="B94" s="34">
         <v>18.52</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="23" t="s">
+      <c r="C94" s="19"/>
+      <c r="D94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="39">
+      <c r="E94" s="34">
         <v>23.14</v>
       </c>
-      <c r="G94" s="23" t="s">
+      <c r="G94" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="37">
         <v>22.07</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="39">
+      <c r="B95" s="34">
         <v>18.13</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="23" t="s">
+      <c r="C95" s="19"/>
+      <c r="D95" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="39">
+      <c r="E95" s="34">
         <v>22.84</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H95" s="39">
+      <c r="H95" s="34">
         <v>22.55</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="42">
+      <c r="B96" s="37">
         <v>19.02</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="34">
         <v>23.39</v>
       </c>
-      <c r="G96" s="23" t="s">
+      <c r="G96" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="39">
+      <c r="H96" s="34">
         <v>23.72</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="39">
+      <c r="B97" s="34">
         <v>18.690000000000001</v>
       </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="23" t="s">
+      <c r="C97" s="19"/>
+      <c r="D97" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E97" s="34">
         <v>23.34</v>
       </c>
-      <c r="G97" s="23" t="s">
+      <c r="G97" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="39">
+      <c r="H97" s="34">
         <v>22.33</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B98" s="34">
         <v>18.36</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="23" t="s">
+      <c r="C98" s="19"/>
+      <c r="D98" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="34">
         <v>23.32</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="39">
+      <c r="H98" s="34">
         <v>22.93</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="39">
+      <c r="B99" s="34">
         <v>18.13</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="23" t="s">
+      <c r="C99" s="19"/>
+      <c r="D99" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E99" s="34">
         <v>22.41</v>
       </c>
-      <c r="G99" s="23" t="s">
+      <c r="G99" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H99" s="39">
+      <c r="H99" s="34">
         <v>25.36</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B100" s="34">
         <v>19.61</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="23" t="s">
+      <c r="C100" s="19"/>
+      <c r="D100" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="34">
         <v>22.78</v>
       </c>
-      <c r="G100" s="23" t="s">
+      <c r="G100" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="42">
+      <c r="H100" s="37">
         <v>22.08</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="39">
+      <c r="B101" s="34">
         <v>18.28</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="23" t="s">
+      <c r="C101" s="19"/>
+      <c r="D101" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="34">
         <v>22.16</v>
       </c>
-      <c r="G101" s="23" t="s">
+      <c r="G101" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H101" s="39">
+      <c r="H101" s="34">
         <v>23.45</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B102" s="34">
         <v>18.29</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="23" t="s">
+      <c r="C102" s="19"/>
+      <c r="D102" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="39">
+      <c r="E102" s="34">
         <v>23.96</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H102" s="39">
+      <c r="H102" s="34">
         <v>22.33</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B103" s="26">
+      <c r="B103" s="21">
         <f>AVERAGE(B93:B102)</f>
         <v>18.726999999999997</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="32" t="s">
+      <c r="C103" s="19"/>
+      <c r="D103" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E103" s="26">
+      <c r="E103" s="21">
         <f>AVERAGE(E93:E102)</f>
         <v>23.033000000000001</v>
       </c>
-      <c r="G103" s="32" t="s">
+      <c r="G103" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H103" s="26">
+      <c r="H103" s="21">
         <f>AVERAGE(H93:H102)</f>
         <v>23.272999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="24"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="8"/>
       <c r="E104" s="2"/>
       <c r="G104" s="8"/>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="21" t="s">
+      <c r="C105" s="19"/>
+      <c r="D105" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="G105" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H105" s="19" t="s">
+      <c r="H105" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="39">
+      <c r="A106" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="34">
         <v>23.18</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" s="39">
+      <c r="C106" s="19"/>
+      <c r="D106" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="34">
         <v>23.55</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H106" s="39">
+      <c r="G106" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="34">
         <v>24.19</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="39">
+      <c r="B107" s="34">
         <v>20.47</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23" t="s">
+      <c r="C107" s="19"/>
+      <c r="D107" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E107" s="34">
         <v>24.97</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="39">
+      <c r="H107" s="34">
         <v>23.43</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="39">
+      <c r="B108" s="34">
         <v>24.47</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="23" t="s">
+      <c r="C108" s="19"/>
+      <c r="D108" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="42">
+      <c r="E108" s="37">
         <v>24.07</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="G108" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="39">
+      <c r="H108" s="34">
         <v>22.23</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="39">
+      <c r="B109" s="34">
         <v>20.190000000000001</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="23" t="s">
+      <c r="C109" s="19"/>
+      <c r="D109" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E109" s="42">
+      <c r="E109" s="37">
         <v>23.08</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G109" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H109" s="39">
+      <c r="H109" s="34">
         <v>25.97</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="39">
+      <c r="B110" s="34">
         <v>19.940000000000001</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="23" t="s">
+      <c r="C110" s="19"/>
+      <c r="D110" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="42">
+      <c r="E110" s="37">
         <v>22.06</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G110" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H110" s="39">
+      <c r="H110" s="34">
         <v>21.29</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="39">
+      <c r="B111" s="34">
         <v>19.510000000000002</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="23" t="s">
+      <c r="C111" s="19"/>
+      <c r="D111" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="39">
+      <c r="E111" s="34">
         <v>23.42</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="G111" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="39">
+      <c r="H111" s="34">
         <v>25.15</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B112" s="34">
         <v>25</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="23" t="s">
+      <c r="C112" s="19"/>
+      <c r="D112" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="39">
+      <c r="E112" s="34">
         <v>22.55</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="G112" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H112" s="39">
+      <c r="H112" s="34">
         <v>21.94</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="42">
+      <c r="B113" s="37">
         <v>20.09</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="D113" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="39">
+      <c r="E113" s="34">
         <v>22.83</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="39">
+      <c r="H113" s="34">
         <v>25.79</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="39">
+      <c r="B114" s="34">
         <v>19.739999999999998</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="23" t="s">
+      <c r="C114" s="19"/>
+      <c r="D114" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="39">
+      <c r="E114" s="34">
         <v>27.28</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="G114" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="39">
+      <c r="H114" s="34">
         <v>21.51</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="39">
+      <c r="B115" s="34">
         <v>19.77</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="23" t="s">
+      <c r="C115" s="19"/>
+      <c r="D115" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="39">
+      <c r="E115" s="34">
         <v>23.31</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="G115" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="39">
+      <c r="H115" s="34">
         <v>27.24</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B116" s="21">
         <f>AVERAGE(B106:B115)</f>
         <v>21.236000000000001</v>
       </c>
-      <c r="C116" s="24"/>
-      <c r="D116" s="32" t="s">
+      <c r="C116" s="19"/>
+      <c r="D116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E116" s="26">
+      <c r="E116" s="21">
         <f>AVERAGE(E106:E115)</f>
         <v>23.712000000000003</v>
       </c>
-      <c r="G116" s="32" t="s">
+      <c r="G116" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H116" s="26">
+      <c r="H116" s="21">
         <f>AVERAGE(H106:H115)</f>
         <v>23.874000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="24"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="8"/>
       <c r="E117" s="2"/>
       <c r="G117" s="8"/>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="21" t="s">
+      <c r="C118" s="19"/>
+      <c r="D118" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="G118" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="39">
+      <c r="A119" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="34">
         <v>22.62</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E119" s="39">
+      <c r="C119" s="19"/>
+      <c r="D119" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="34">
         <v>24.62</v>
       </c>
-      <c r="G119" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H119" s="39">
+      <c r="G119" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="34">
         <v>29.2</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B120" s="34">
         <v>19.93</v>
       </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="23" t="s">
+      <c r="C120" s="19"/>
+      <c r="D120" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E120" s="39">
+      <c r="E120" s="34">
         <v>23.42</v>
       </c>
-      <c r="G120" s="23" t="s">
+      <c r="G120" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H120" s="39">
+      <c r="H120" s="34">
         <v>22.67</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="39">
+      <c r="B121" s="34">
         <v>20.58</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="23" t="s">
+      <c r="C121" s="19"/>
+      <c r="D121" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="42">
+      <c r="E121" s="37">
         <v>23.03</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="39">
+      <c r="H121" s="34">
         <v>23.66</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B122" s="34">
         <v>19.78</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="23" t="s">
+      <c r="C122" s="19"/>
+      <c r="D122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="39">
+      <c r="E122" s="34">
         <v>24.48</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H122" s="39">
+      <c r="H122" s="34">
         <v>22.23</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="42">
+      <c r="B123" s="37">
         <v>20.079999999999998</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="39">
+      <c r="E123" s="34">
         <v>23.23</v>
       </c>
-      <c r="G123" s="23" t="s">
+      <c r="G123" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H123" s="39">
+      <c r="H123" s="34">
         <v>21.96</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="42">
+      <c r="B124" s="37">
         <v>20.03</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D124" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="39">
+      <c r="E124" s="34">
         <v>23.38</v>
       </c>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="39">
+      <c r="H124" s="34">
         <v>21.95</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="42">
+      <c r="B125" s="37">
         <v>20.05</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="39">
+      <c r="E125" s="34">
         <v>26.58</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="39">
+      <c r="H125" s="34">
         <v>26.72</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="42">
+      <c r="B126" s="37">
         <v>19.079999999999998</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="42">
+      <c r="E126" s="37">
         <v>23.07</v>
       </c>
-      <c r="G126" s="23" t="s">
+      <c r="G126" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H126" s="39">
+      <c r="H126" s="34">
         <v>23.14</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="39">
+      <c r="B127" s="34">
         <v>22.69</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="23" t="s">
+      <c r="C127" s="19"/>
+      <c r="D127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="39">
+      <c r="E127" s="34">
         <v>24.82</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="39">
+      <c r="H127" s="34">
         <v>22.87</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="39">
+      <c r="B128" s="34">
         <v>19.239999999999998</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="23" t="s">
+      <c r="C128" s="19"/>
+      <c r="D128" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="39">
+      <c r="E128" s="34">
         <v>23.61</v>
       </c>
-      <c r="G128" s="23" t="s">
+      <c r="G128" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H128" s="39">
+      <c r="H128" s="34">
         <v>22.33</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B129" s="26">
+      <c r="B129" s="21">
         <f>AVERAGE(B119:B128)</f>
         <v>20.407999999999998</v>
       </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="32" t="s">
+      <c r="C129" s="19"/>
+      <c r="D129" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E129" s="26">
+      <c r="E129" s="21">
         <f>AVERAGE(E119:E128)</f>
         <v>24.024000000000001</v>
       </c>
-      <c r="G129" s="32" t="s">
+      <c r="G129" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H129" s="26">
+      <c r="H129" s="21">
         <f>AVERAGE(H119:H128)</f>
         <v>23.672999999999995</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="24"/>
+      <c r="C130" s="19"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="21" t="s">
+      <c r="C131" s="19"/>
+      <c r="D131" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G131" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="H131" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="42">
+      <c r="A132" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="37">
         <v>23.04</v>
       </c>
-      <c r="D132" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E132" s="39">
+      <c r="D132" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="34">
         <v>17.350000000000001</v>
       </c>
-      <c r="G132" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H132" s="39">
+      <c r="G132" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" s="34">
         <v>24.57</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="42">
+      <c r="B133" s="37">
         <v>22.06</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E133" s="39">
+      <c r="E133" s="34">
         <v>17.57</v>
       </c>
-      <c r="G133" s="23" t="s">
+      <c r="G133" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H133" s="39">
+      <c r="H133" s="34">
         <v>22.32</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="39">
+      <c r="B134" s="34">
         <v>21.63</v>
       </c>
-      <c r="C134" s="24"/>
-      <c r="D134" s="23" t="s">
+      <c r="C134" s="19"/>
+      <c r="D134" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="39">
+      <c r="E134" s="34">
         <v>19.850000000000001</v>
       </c>
-      <c r="G134" s="23" t="s">
+      <c r="G134" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="39">
+      <c r="H134" s="34">
         <v>22.65</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="39">
+      <c r="B135" s="34">
         <v>20.43</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="23" t="s">
+      <c r="C135" s="19"/>
+      <c r="D135" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="42">
+      <c r="E135" s="37">
         <v>19.100000000000001</v>
       </c>
-      <c r="G135" s="23" t="s">
+      <c r="G135" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H135" s="39">
+      <c r="H135" s="34">
         <v>24.14</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="39">
+      <c r="B136" s="34">
         <v>21.72</v>
       </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="23" t="s">
+      <c r="C136" s="19"/>
+      <c r="D136" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="39">
+      <c r="E136" s="34">
         <v>18.64</v>
       </c>
-      <c r="G136" s="23" t="s">
+      <c r="G136" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H136" s="39">
+      <c r="H136" s="34">
         <v>22.77</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="39">
+      <c r="B137" s="34">
         <v>20.92</v>
       </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="23" t="s">
+      <c r="C137" s="19"/>
+      <c r="D137" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E137" s="39">
+      <c r="E137" s="34">
         <v>17.91</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="G137" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="39">
+      <c r="H137" s="34">
         <v>22.81</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="39">
+      <c r="B138" s="34">
         <v>21.73</v>
       </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="23" t="s">
+      <c r="C138" s="19"/>
+      <c r="D138" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="42">
+      <c r="E138" s="37">
         <v>17.079999999999998</v>
       </c>
-      <c r="G138" s="23" t="s">
+      <c r="G138" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H138" s="39">
+      <c r="H138" s="34">
         <v>21.89</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B139" s="42">
+      <c r="B139" s="37">
         <v>20.09</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="39">
+      <c r="E139" s="34">
         <v>17.36</v>
       </c>
-      <c r="G139" s="23" t="s">
+      <c r="G139" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H139" s="39">
+      <c r="H139" s="34">
         <v>23.19</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="39">
+      <c r="B140" s="34">
         <v>22.49</v>
       </c>
-      <c r="C140" s="24"/>
-      <c r="D140" s="23" t="s">
+      <c r="C140" s="19"/>
+      <c r="D140" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="42">
+      <c r="E140" s="37">
         <v>17.05</v>
       </c>
-      <c r="G140" s="23" t="s">
+      <c r="G140" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="42">
+      <c r="H140" s="37">
         <v>23.03</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B141" s="39">
+      <c r="B141" s="34">
         <v>20.63</v>
       </c>
-      <c r="C141" s="24"/>
-      <c r="D141" s="23" t="s">
+      <c r="C141" s="19"/>
+      <c r="D141" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="39">
+      <c r="E141" s="34">
         <v>18.77</v>
       </c>
-      <c r="G141" s="23" t="s">
+      <c r="G141" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="39">
+      <c r="H141" s="34">
         <v>22.44</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B142" s="21">
         <f>AVERAGE(B132:B141)</f>
         <v>21.474</v>
       </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="32" t="s">
+      <c r="C142" s="19"/>
+      <c r="D142" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E142" s="26">
+      <c r="E142" s="21">
         <f>AVERAGE(E132:E141)</f>
         <v>18.068000000000005</v>
       </c>
-      <c r="G142" s="32" t="s">
+      <c r="G142" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H142" s="26">
+      <c r="H142" s="21">
         <f>AVERAGE(H132:H141)</f>
         <v>22.980999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="33"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="24"/>
+      <c r="C143" s="19"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C144" s="24"/>
-      <c r="D144" s="21" t="s">
+      <c r="C144" s="19"/>
+      <c r="D144" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="E144" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G144" s="21" t="s">
+      <c r="G144" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H144" s="19" t="s">
+      <c r="H144" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="39">
+      <c r="A145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="34">
         <v>23.94</v>
       </c>
-      <c r="C145" s="24"/>
-      <c r="D145" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" s="39">
+      <c r="C145" s="19"/>
+      <c r="D145" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="34">
         <v>19.82</v>
       </c>
-      <c r="G145" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H145" s="39">
+      <c r="G145" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H145" s="34">
         <v>23.51</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B146" s="39">
+      <c r="B146" s="34">
         <v>24.92</v>
       </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="23" t="s">
+      <c r="C146" s="19"/>
+      <c r="D146" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E146" s="39">
+      <c r="E146" s="34">
         <v>18.32</v>
       </c>
-      <c r="G146" s="23" t="s">
+      <c r="G146" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H146" s="42">
+      <c r="H146" s="37">
         <v>23.01</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="39">
+      <c r="B147" s="34">
         <v>23.89</v>
       </c>
-      <c r="C147" s="24"/>
-      <c r="D147" s="23" t="s">
+      <c r="C147" s="19"/>
+      <c r="D147" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="39">
+      <c r="E147" s="34">
         <v>19.18</v>
       </c>
-      <c r="G147" s="23" t="s">
+      <c r="G147" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H147" s="39">
+      <c r="H147" s="34">
         <v>23.16</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="22" t="s">
+      <c r="A148" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="42">
+      <c r="B148" s="37">
         <v>24.03</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="39">
+      <c r="E148" s="34">
         <v>19.14</v>
       </c>
-      <c r="G148" s="23" t="s">
+      <c r="G148" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H148" s="39">
+      <c r="H148" s="34">
         <v>23.63</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="22" t="s">
+      <c r="A149" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="39">
+      <c r="B149" s="34">
         <v>22.93</v>
       </c>
-      <c r="C149" s="24"/>
-      <c r="D149" s="23" t="s">
+      <c r="C149" s="19"/>
+      <c r="D149" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="42">
+      <c r="E149" s="37">
         <v>19.04</v>
       </c>
-      <c r="G149" s="23" t="s">
+      <c r="G149" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H149" s="39">
+      <c r="H149" s="34">
         <v>22.17</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B150" s="39">
+      <c r="B150" s="34">
         <v>23.56</v>
       </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="23" t="s">
+      <c r="C150" s="19"/>
+      <c r="D150" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="39">
+      <c r="E150" s="34">
         <v>18.45</v>
       </c>
-      <c r="G150" s="23" t="s">
+      <c r="G150" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H150" s="39">
+      <c r="H150" s="34">
         <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="22" t="s">
+      <c r="A151" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="42">
+      <c r="B151" s="37">
         <v>23.04</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="39">
+      <c r="E151" s="34">
         <v>18.309999999999999</v>
       </c>
-      <c r="G151" s="23" t="s">
+      <c r="G151" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H151" s="39">
+      <c r="H151" s="34">
         <v>22.74</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="39">
+      <c r="B152" s="34">
         <v>23.92</v>
       </c>
-      <c r="C152" s="24"/>
-      <c r="D152" s="23" t="s">
+      <c r="C152" s="19"/>
+      <c r="D152" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="39">
+      <c r="E152" s="34">
         <v>18.649999999999999</v>
       </c>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H152" s="42">
+      <c r="H152" s="37">
         <v>24.01</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B153" s="39">
+      <c r="B153" s="34">
         <v>24.27</v>
       </c>
-      <c r="C153" s="24"/>
-      <c r="D153" s="23" t="s">
+      <c r="C153" s="19"/>
+      <c r="D153" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E153" s="39">
+      <c r="E153" s="34">
         <v>17.89</v>
       </c>
-      <c r="G153" s="23" t="s">
+      <c r="G153" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H153" s="39">
+      <c r="H153" s="34">
         <v>21.61</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="39">
+      <c r="B154" s="34">
         <v>26.58</v>
       </c>
-      <c r="C154" s="24"/>
-      <c r="D154" s="23" t="s">
+      <c r="C154" s="19"/>
+      <c r="D154" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="39">
+      <c r="E154" s="34">
         <v>19.95</v>
       </c>
-      <c r="G154" s="23" t="s">
+      <c r="G154" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H154" s="39">
+      <c r="H154" s="34">
         <v>21.92</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B155" s="21">
         <f>AVERAGE(B145:B154)</f>
         <v>24.108000000000004</v>
       </c>
-      <c r="C155" s="24"/>
-      <c r="D155" s="32" t="s">
+      <c r="C155" s="19"/>
+      <c r="D155" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E155" s="26">
+      <c r="E155" s="21">
         <f>AVERAGE(E145:E154)</f>
         <v>18.875</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H155" s="26">
+      <c r="H155" s="21">
         <f>AVERAGE(H145:H154)</f>
         <v>22.876000000000005</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E157" s="19" t="s">
+      <c r="E157" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G157" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H157" s="19" t="s">
+      <c r="H157" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="39">
+      <c r="A158" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="34">
         <v>21.22</v>
       </c>
-      <c r="D158" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E158" s="39">
+      <c r="D158" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="34">
         <v>21.08</v>
       </c>
-      <c r="G158" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H158" s="39">
+      <c r="G158" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H158" s="34">
         <v>23.67</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="23" t="s">
+      <c r="A159" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="39">
+      <c r="B159" s="34">
         <v>21.88</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="39">
+      <c r="E159" s="34">
         <v>20.64</v>
       </c>
-      <c r="G159" s="23" t="s">
+      <c r="G159" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H159" s="39">
+      <c r="H159" s="34">
         <v>21.19</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="39">
+      <c r="B160" s="34">
         <v>21.33</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="D160" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="39">
+      <c r="E160" s="34">
         <v>21.28</v>
       </c>
-      <c r="G160" s="23" t="s">
+      <c r="G160" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H160" s="39">
+      <c r="H160" s="34">
         <v>22.34</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="39">
+      <c r="B161" s="34">
         <v>22.95</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="39">
+      <c r="E161" s="34">
         <v>20.29</v>
       </c>
-      <c r="G161" s="23" t="s">
+      <c r="G161" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H161" s="39">
+      <c r="H161" s="34">
         <v>22.58</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="39">
+      <c r="B162" s="34">
         <v>23.44</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="39">
+      <c r="E162" s="34">
         <v>20.79</v>
       </c>
-      <c r="G162" s="23" t="s">
+      <c r="G162" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H162" s="39">
+      <c r="H162" s="34">
         <v>22.65</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="42">
+      <c r="B163" s="37">
         <v>22.01</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E163" s="42">
+      <c r="E163" s="37">
         <v>21.07</v>
       </c>
-      <c r="G163" s="23" t="s">
+      <c r="G163" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H163" s="42">
+      <c r="H163" s="37">
         <v>22.02</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="23" t="s">
+      <c r="A164" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="39">
+      <c r="B164" s="34">
         <v>21.38</v>
       </c>
-      <c r="D164" s="23" t="s">
+      <c r="D164" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="39">
+      <c r="E164" s="34">
         <v>22.43</v>
       </c>
-      <c r="G164" s="23" t="s">
+      <c r="G164" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H164" s="39">
+      <c r="H164" s="34">
         <v>22.36</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="23" t="s">
+      <c r="A165" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B165" s="39">
+      <c r="B165" s="34">
         <v>23.39</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="D165" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E165" s="39">
+      <c r="E165" s="34">
         <v>20.74</v>
       </c>
-      <c r="G165" s="23" t="s">
+      <c r="G165" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="39">
+      <c r="H165" s="34">
         <v>21.72</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B166" s="39">
+      <c r="B166" s="34">
         <v>25.47</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="39">
+      <c r="E166" s="34">
         <v>21.23</v>
       </c>
-      <c r="G166" s="23" t="s">
+      <c r="G166" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H166" s="39">
+      <c r="H166" s="34">
         <v>24.65</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="23" t="s">
+      <c r="A167" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="39">
+      <c r="B167" s="34">
         <v>21.57</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="39">
+      <c r="E167" s="34">
         <v>20.309999999999999</v>
       </c>
-      <c r="G167" s="23" t="s">
+      <c r="G167" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H167" s="39">
+      <c r="H167" s="34">
         <v>21.96</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B168" s="26">
+      <c r="B168" s="21">
         <f>AVERAGE(B158:B167)</f>
         <v>22.463999999999995</v>
       </c>
-      <c r="D168" s="32" t="s">
+      <c r="D168" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E168" s="26">
+      <c r="E168" s="21">
         <f>AVERAGE(E158:E167)</f>
         <v>20.985999999999997</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H168" s="26">
+      <c r="H168" s="21">
         <f>AVERAGE(H158:H167)</f>
         <v>22.514000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E170" s="19" t="s">
+      <c r="E170" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G170" s="21" t="s">
+      <c r="G170" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H170" s="19" t="s">
+      <c r="H170" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="39">
+      <c r="A171" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="34">
         <v>23.52</v>
       </c>
-      <c r="D171" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E171" s="39">
+      <c r="D171" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="34">
         <v>32.479999999999997</v>
       </c>
-      <c r="G171" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H171" s="42">
+      <c r="G171" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H171" s="37">
         <v>24.09</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="23" t="s">
+      <c r="A172" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B172" s="42">
+      <c r="B172" s="37">
         <v>22.05</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="39">
+      <c r="E172" s="34">
         <v>20.97</v>
       </c>
-      <c r="G172" s="23" t="s">
+      <c r="G172" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H172" s="42">
+      <c r="H172" s="37">
         <v>21.08</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="23" t="s">
+      <c r="A173" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="42">
+      <c r="B173" s="37">
         <v>22.02</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E173" s="39">
+      <c r="E173" s="34">
         <v>21.17</v>
       </c>
-      <c r="G173" s="23" t="s">
+      <c r="G173" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H173" s="39">
+      <c r="H173" s="34">
         <v>22.47</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="42">
+      <c r="B174" s="37">
         <v>22.06</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="39">
+      <c r="E174" s="34">
         <v>21.14</v>
       </c>
-      <c r="G174" s="23" t="s">
+      <c r="G174" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H174" s="39">
+      <c r="H174" s="34">
         <v>22.27</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="23" t="s">
+      <c r="A175" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="39">
+      <c r="B175" s="34">
         <v>21.87</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E175" s="39">
+      <c r="E175" s="34">
         <v>22.25</v>
       </c>
-      <c r="G175" s="23" t="s">
+      <c r="G175" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H175" s="42">
+      <c r="H175" s="37">
         <v>21.07</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="23" t="s">
+      <c r="A176" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B176" s="39">
+      <c r="B176" s="34">
         <v>21.52</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E176" s="39">
+      <c r="E176" s="34">
         <v>21.49</v>
       </c>
-      <c r="G176" s="23" t="s">
+      <c r="G176" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="39">
+      <c r="H176" s="34">
         <v>22.29</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B177" s="39">
+      <c r="B177" s="34">
         <v>27.93</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="39">
+      <c r="E177" s="34">
         <v>21.84</v>
       </c>
-      <c r="G177" s="23" t="s">
+      <c r="G177" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H177" s="39">
+      <c r="H177" s="34">
         <v>22.51</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="39">
+      <c r="B178" s="34">
         <v>23.88</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D178" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="39">
+      <c r="E178" s="34">
         <v>22.21</v>
       </c>
-      <c r="G178" s="23" t="s">
+      <c r="G178" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H178" s="39">
+      <c r="H178" s="34">
         <v>22.55</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="39">
+      <c r="B179" s="34">
         <v>21.75</v>
       </c>
-      <c r="D179" s="23" t="s">
+      <c r="D179" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E179" s="39">
+      <c r="E179" s="34">
         <v>21.15</v>
       </c>
-      <c r="G179" s="23" t="s">
+      <c r="G179" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H179" s="39">
+      <c r="H179" s="34">
         <v>23.39</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="39">
+      <c r="B180" s="34">
         <v>21.75</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="39">
+      <c r="E180" s="34">
         <v>20.87</v>
       </c>
-      <c r="G180" s="23" t="s">
+      <c r="G180" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H180" s="39">
+      <c r="H180" s="34">
         <v>21.61</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="27" t="s">
+      <c r="A181" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B181" s="26">
+      <c r="B181" s="21">
         <f>AVERAGE(B171:B180)</f>
         <v>22.835000000000001</v>
       </c>
-      <c r="D181" s="32" t="s">
+      <c r="D181" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E181" s="26">
+      <c r="E181" s="21">
         <f>AVERAGE(E171:E180)</f>
         <v>22.557000000000002</v>
       </c>
-      <c r="G181" s="32" t="s">
+      <c r="G181" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H181" s="26">
+      <c r="H181" s="21">
         <f>AVERAGE(H171:H180)</f>
         <v>22.332999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9DB4F4-0BAA-A941-A8C6-CC70768CC181}">
-  <dimension ref="A1:K180"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="79.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="173.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="57.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="89.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="193" style="105" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="103" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="57.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="40">
         <v>2</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="52">
-        <v>1</v>
-      </c>
-      <c r="F2" s="49">
+      <c r="E2" s="95">
+        <v>2</v>
+      </c>
+      <c r="F2" s="95">
+        <v>7</v>
+      </c>
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="39">
         <f>Sayfa1!B12</f>
         <v>18.251000000000005</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="44">
         <v>3</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="56">
-        <v>1</v>
-      </c>
-      <c r="F3" s="57">
+      <c r="E3" s="96">
+        <v>4</v>
+      </c>
+      <c r="F3" s="96">
+        <v>11</v>
+      </c>
+      <c r="G3" s="46">
+        <v>1</v>
+      </c>
+      <c r="H3" s="47">
         <f>Sayfa1!B25</f>
         <v>18.527999999999999</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="44">
         <v>3</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="56">
-        <v>1</v>
-      </c>
-      <c r="F4" s="57">
+      <c r="E4" s="96">
+        <v>3</v>
+      </c>
+      <c r="F4" s="96">
+        <v>13</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47">
         <f>Sayfa1!B51</f>
         <v>21.110999999999997</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="44">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="56">
-        <v>1</v>
-      </c>
-      <c r="F5" s="57">
+      <c r="E5" s="96">
+        <v>3</v>
+      </c>
+      <c r="F5" s="96">
+        <v>9</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47">
         <f>Sayfa1!B90</f>
         <v>20.173999999999999</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="44">
         <v>3</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="56">
-        <v>1</v>
-      </c>
-      <c r="F6" s="57">
+      <c r="E6" s="96">
+        <v>4</v>
+      </c>
+      <c r="F6" s="96">
+        <v>11</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1</v>
+      </c>
+      <c r="H6" s="47">
         <f>Sayfa1!E142</f>
         <v>18.068000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="49">
         <v>4</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="61">
-        <v>1</v>
-      </c>
-      <c r="F7" s="62">
+      <c r="E7" s="97">
+        <v>5</v>
+      </c>
+      <c r="F7" s="97">
+        <v>15</v>
+      </c>
+      <c r="G7" s="51">
+        <v>1</v>
+      </c>
+      <c r="H7" s="52">
         <f>Sayfa1!B38</f>
         <v>19.844000000000001</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="49">
         <v>4</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="61">
-        <v>1</v>
-      </c>
-      <c r="F8" s="62">
+      <c r="E8" s="97">
+        <v>5</v>
+      </c>
+      <c r="F8" s="97">
+        <v>17</v>
+      </c>
+      <c r="G8" s="51">
+        <v>1</v>
+      </c>
+      <c r="H8" s="52">
         <f>Sayfa1!B64</f>
         <v>21.916</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="49">
         <v>4</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="61">
-        <v>1</v>
-      </c>
-      <c r="F9" s="62">
+      <c r="E9" s="97">
+        <v>5</v>
+      </c>
+      <c r="F9" s="97">
+        <v>13</v>
+      </c>
+      <c r="G9" s="51">
+        <v>1</v>
+      </c>
+      <c r="H9" s="52">
         <f>Sayfa1!B103</f>
         <v>18.726999999999997</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="49">
         <v>4</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="61">
-        <v>1</v>
-      </c>
-      <c r="F10" s="62">
+      <c r="E10" s="97">
+        <v>5</v>
+      </c>
+      <c r="F10" s="97">
+        <v>20</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1</v>
+      </c>
+      <c r="H10" s="52">
         <f>Sayfa1!B129</f>
         <v>20.407999999999998</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="49">
         <v>4</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="61">
-        <v>1</v>
-      </c>
-      <c r="F11" s="63">
+      <c r="E11" s="97">
+        <v>5</v>
+      </c>
+      <c r="F11" s="97">
+        <v>13</v>
+      </c>
+      <c r="G11" s="51">
+        <v>1</v>
+      </c>
+      <c r="H11" s="53">
         <f>Sayfa1!B168</f>
         <v>22.463999999999995</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="49">
         <v>4</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="61">
-        <v>1</v>
-      </c>
-      <c r="F12" s="63">
+      <c r="E12" s="97">
+        <v>6</v>
+      </c>
+      <c r="F12" s="97">
+        <v>15</v>
+      </c>
+      <c r="G12" s="51">
+        <v>1</v>
+      </c>
+      <c r="H12" s="53">
         <f>Sayfa1!E155</f>
         <v>18.875</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="49">
         <v>4</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="61">
-        <v>1</v>
-      </c>
-      <c r="F13" s="63">
+      <c r="E13" s="97">
+        <v>5</v>
+      </c>
+      <c r="F13" s="97">
+        <v>17</v>
+      </c>
+      <c r="G13" s="51">
+        <v>1</v>
+      </c>
+      <c r="H13" s="53">
         <f>Sayfa1!E181</f>
         <v>22.557000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="49">
         <v>4</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="61">
-        <v>1</v>
-      </c>
-      <c r="F14" s="62">
+      <c r="E14" s="97">
+        <v>5</v>
+      </c>
+      <c r="F14" s="97">
+        <v>13</v>
+      </c>
+      <c r="G14" s="51">
+        <v>1</v>
+      </c>
+      <c r="H14" s="52">
         <f>Sayfa1!H38</f>
         <v>19.741</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="56">
         <v>5</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="68">
-        <v>1</v>
-      </c>
-      <c r="F15" s="65">
+      <c r="E15" s="98">
+        <v>6</v>
+      </c>
+      <c r="F15" s="98">
+        <v>21</v>
+      </c>
+      <c r="G15" s="58">
+        <v>1</v>
+      </c>
+      <c r="H15" s="55">
         <f>Sayfa1!B77</f>
         <v>22.824999999999999</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="56">
         <v>5</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="68">
-        <v>1</v>
-      </c>
-      <c r="F16" s="65">
+      <c r="E16" s="98">
+        <v>6</v>
+      </c>
+      <c r="F16" s="98">
+        <v>15</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="55">
         <f>Sayfa1!B116</f>
         <v>21.236000000000001</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="56">
         <v>5</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="68">
-        <v>1</v>
-      </c>
-      <c r="F17" s="65">
+      <c r="E17" s="98">
+        <v>7</v>
+      </c>
+      <c r="F17" s="98">
+        <v>24</v>
+      </c>
+      <c r="G17" s="58">
+        <v>1</v>
+      </c>
+      <c r="H17" s="55">
         <f>Sayfa1!B142</f>
         <v>21.474</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="56">
         <v>5</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="68">
-        <v>1</v>
-      </c>
-      <c r="F18" s="70">
+      <c r="E18" s="98">
+        <v>6</v>
+      </c>
+      <c r="F18" s="98">
+        <v>19</v>
+      </c>
+      <c r="G18" s="58">
+        <v>1</v>
+      </c>
+      <c r="H18" s="60">
         <f>Sayfa1!B181</f>
         <v>22.835000000000001</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="56">
         <v>5</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="68">
-        <v>1</v>
-      </c>
-      <c r="F19" s="65">
+      <c r="E19" s="98">
+        <v>5</v>
+      </c>
+      <c r="F19" s="98">
+        <v>18</v>
+      </c>
+      <c r="G19" s="58">
+        <v>1</v>
+      </c>
+      <c r="H19" s="55">
         <f>Sayfa1!E25</f>
         <v>23.202000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="56">
         <v>5</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="68">
-        <v>1</v>
-      </c>
-      <c r="F20" s="65">
+      <c r="E20" s="98">
+        <v>6</v>
+      </c>
+      <c r="F20" s="98">
+        <v>15</v>
+      </c>
+      <c r="G20" s="58">
+        <v>1</v>
+      </c>
+      <c r="H20" s="55">
         <f>Sayfa1!E64</f>
         <v>21.395</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="56">
         <v>5</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="68">
-        <v>1</v>
-      </c>
-      <c r="F21" s="70">
+      <c r="E21" s="98">
+        <v>7</v>
+      </c>
+      <c r="F21" s="98">
+        <v>19</v>
+      </c>
+      <c r="G21" s="58">
+        <v>1</v>
+      </c>
+      <c r="H21" s="60">
         <f>Sayfa1!E168</f>
         <v>20.985999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="56">
         <v>5</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="68">
-        <v>1</v>
-      </c>
-      <c r="F22" s="65">
+      <c r="E22" s="98">
+        <v>7</v>
+      </c>
+      <c r="F22" s="98">
+        <v>21</v>
+      </c>
+      <c r="G22" s="58">
+        <v>1</v>
+      </c>
+      <c r="H22" s="55">
         <f>Sayfa1!H12</f>
         <v>22.448</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="56">
         <v>5</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="68">
-        <v>1</v>
-      </c>
-      <c r="F23" s="65">
+      <c r="E23" s="98">
+        <v>7</v>
+      </c>
+      <c r="F23" s="98">
+        <v>17</v>
+      </c>
+      <c r="G23" s="58">
+        <v>1</v>
+      </c>
+      <c r="H23" s="55">
         <f>Sayfa1!H51</f>
         <v>20.125</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="56">
         <v>5</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="68">
-        <v>1</v>
-      </c>
-      <c r="F24" s="65">
+      <c r="E24" s="98">
+        <v>7</v>
+      </c>
+      <c r="F24" s="98">
+        <v>24</v>
+      </c>
+      <c r="G24" s="58">
+        <v>1</v>
+      </c>
+      <c r="H24" s="55">
         <f>Sayfa1!H77</f>
         <v>21.705000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="56">
         <v>5</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="68">
-        <v>1</v>
-      </c>
-      <c r="F25" s="65">
+      <c r="E25" s="98">
+        <v>6</v>
+      </c>
+      <c r="F25" s="98">
+        <v>19</v>
+      </c>
+      <c r="G25" s="58">
+        <v>1</v>
+      </c>
+      <c r="H25" s="55">
         <f>Sayfa1!H116</f>
         <v>23.874000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="63">
         <v>6</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="75">
-        <v>1</v>
-      </c>
-      <c r="F26" s="72">
+      <c r="E26" s="99">
+        <v>8</v>
+      </c>
+      <c r="F26" s="99">
+        <v>28</v>
+      </c>
+      <c r="G26" s="65">
+        <v>1</v>
+      </c>
+      <c r="H26" s="62">
         <f>Sayfa1!B155</f>
         <v>24.108000000000004</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="63">
         <v>6</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="75">
-        <v>1</v>
-      </c>
-      <c r="F27" s="76">
+      <c r="E27" s="99">
+        <v>7</v>
+      </c>
+      <c r="F27" s="99">
+        <v>23</v>
+      </c>
+      <c r="G27" s="65">
+        <v>1</v>
+      </c>
+      <c r="H27" s="66">
         <f>Sayfa1!E12</f>
         <v>22.821000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="63">
         <v>6</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="75">
-        <v>1</v>
-      </c>
-      <c r="F28" s="76">
+      <c r="E28" s="99">
+        <v>7</v>
+      </c>
+      <c r="F28" s="99">
+        <v>22</v>
+      </c>
+      <c r="G28" s="65">
+        <v>1</v>
+      </c>
+      <c r="H28" s="66">
         <f>Sayfa1!E38</f>
         <v>22.631</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="63">
         <v>6</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="75">
-        <v>1</v>
-      </c>
-      <c r="F29" s="76">
+      <c r="E29" s="99">
+        <v>8</v>
+      </c>
+      <c r="F29" s="99">
+        <v>19</v>
+      </c>
+      <c r="G29" s="65">
+        <v>1</v>
+      </c>
+      <c r="H29" s="66">
         <f>Sayfa1!E77</f>
         <v>21.255000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A30" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="63">
         <v>6</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="75">
-        <v>1</v>
-      </c>
-      <c r="F30" s="76">
+      <c r="E30" s="99">
+        <v>7</v>
+      </c>
+      <c r="F30" s="99">
+        <v>21</v>
+      </c>
+      <c r="G30" s="65">
+        <v>1</v>
+      </c>
+      <c r="H30" s="66">
         <f>Sayfa1!E103</f>
         <v>23.033000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="63">
         <v>6</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="75">
-        <v>1</v>
-      </c>
-      <c r="F31" s="76">
+      <c r="E31" s="99">
+        <v>8</v>
+      </c>
+      <c r="F31" s="99">
+        <v>25</v>
+      </c>
+      <c r="G31" s="65">
+        <v>1</v>
+      </c>
+      <c r="H31" s="66">
         <f>Sayfa1!H25</f>
         <v>22.183</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="63">
         <v>6</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="75">
-        <v>1</v>
-      </c>
-      <c r="F32" s="76">
+      <c r="E32" s="99">
+        <v>8</v>
+      </c>
+      <c r="F32" s="99">
+        <v>21</v>
+      </c>
+      <c r="G32" s="65">
+        <v>1</v>
+      </c>
+      <c r="H32" s="66">
         <f>Sayfa1!H64</f>
         <v>21.240000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="63">
         <v>6</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="75">
-        <v>1</v>
-      </c>
-      <c r="F33" s="76">
+      <c r="E33" s="99">
+        <v>7</v>
+      </c>
+      <c r="F33" s="99">
+        <v>24</v>
+      </c>
+      <c r="G33" s="65">
+        <v>1</v>
+      </c>
+      <c r="H33" s="66">
         <f>Sayfa1!H90</f>
         <v>21.681999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="63">
         <v>6</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="75">
-        <v>1</v>
-      </c>
-      <c r="F34" s="76">
+      <c r="E34" s="99">
+        <v>8</v>
+      </c>
+      <c r="F34" s="99">
+        <v>23</v>
+      </c>
+      <c r="G34" s="65">
+        <v>1</v>
+      </c>
+      <c r="H34" s="66">
         <f>Sayfa1!H129</f>
         <v>23.672999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="63">
         <v>6</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="75">
-        <v>1</v>
-      </c>
-      <c r="F35" s="72">
+      <c r="E35" s="99">
+        <v>7</v>
+      </c>
+      <c r="F35" s="99">
+        <v>22</v>
+      </c>
+      <c r="G35" s="65">
+        <v>1</v>
+      </c>
+      <c r="H35" s="62">
         <f>Sayfa1!H155</f>
         <v>22.876000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A36" s="77" t="s">
+    <row r="36" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A36" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="69">
         <v>7</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="81">
-        <v>1</v>
-      </c>
-      <c r="F36" s="78">
+      <c r="E36" s="100">
+        <v>9</v>
+      </c>
+      <c r="F36" s="100">
+        <v>25</v>
+      </c>
+      <c r="G36" s="71">
+        <v>1</v>
+      </c>
+      <c r="H36" s="68">
         <f>Sayfa1!E51</f>
         <v>23.54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+    <row r="37" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A37" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="69">
         <v>7</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="81">
-        <v>1</v>
-      </c>
-      <c r="F37" s="78">
+      <c r="E37" s="100">
+        <v>9</v>
+      </c>
+      <c r="F37" s="100">
+        <v>23</v>
+      </c>
+      <c r="G37" s="71">
+        <v>1</v>
+      </c>
+      <c r="H37" s="68">
         <f>Sayfa1!E90</f>
         <v>21.652999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
+    <row r="38" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A38" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="69">
         <v>7</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="81">
-        <v>1</v>
-      </c>
-      <c r="F38" s="78">
+      <c r="E38" s="100">
+        <v>9</v>
+      </c>
+      <c r="F38" s="100">
+        <v>25</v>
+      </c>
+      <c r="G38" s="71">
+        <v>1</v>
+      </c>
+      <c r="H38" s="68">
         <f>Sayfa1!E116</f>
         <v>23.712000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="187" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+    <row r="39" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A39" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="79">
+      <c r="C39" s="69">
         <v>7</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="81">
-        <v>1</v>
-      </c>
-      <c r="F39" s="78">
+      <c r="E39" s="100">
+        <v>10</v>
+      </c>
+      <c r="F39" s="100">
+        <v>32</v>
+      </c>
+      <c r="G39" s="71">
+        <v>1</v>
+      </c>
+      <c r="H39" s="68">
         <f>Sayfa1!H103</f>
         <v>23.272999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+    <row r="40" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A40" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="79">
+      <c r="C40" s="69">
         <v>7</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="81">
-        <v>1</v>
-      </c>
-      <c r="F40" s="78">
+      <c r="E40" s="100">
+        <v>9</v>
+      </c>
+      <c r="F40" s="100">
+        <v>29</v>
+      </c>
+      <c r="G40" s="71">
+        <v>1</v>
+      </c>
+      <c r="H40" s="68">
         <f>Sayfa1!H142</f>
         <v>22.980999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+    <row r="41" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A41" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="79">
+      <c r="C41" s="69">
         <v>7</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="81">
-        <v>1</v>
-      </c>
-      <c r="F41" s="82">
+      <c r="E41" s="100">
+        <v>9</v>
+      </c>
+      <c r="F41" s="100">
+        <v>26</v>
+      </c>
+      <c r="G41" s="71">
+        <v>1</v>
+      </c>
+      <c r="H41" s="72">
         <f>Sayfa1!H168</f>
         <v>22.514000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A42" s="83" t="s">
+    <row r="42" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A42" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="85">
+      <c r="C42" s="75">
         <v>8</v>
       </c>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="87">
-        <v>1</v>
-      </c>
-      <c r="F42" s="88">
+      <c r="E42" s="101">
+        <v>10</v>
+      </c>
+      <c r="F42" s="101">
+        <v>31</v>
+      </c>
+      <c r="G42" s="77">
+        <v>1</v>
+      </c>
+      <c r="H42" s="78">
         <f>Sayfa1!E129</f>
         <v>24.024000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A43" s="83" t="s">
+    <row r="43" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A43" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="75">
         <v>8</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="87">
-        <v>1</v>
-      </c>
-      <c r="F43" s="84">
+      <c r="E43" s="101">
+        <v>10</v>
+      </c>
+      <c r="F43" s="101">
+        <v>30</v>
+      </c>
+      <c r="G43" s="77">
+        <v>1</v>
+      </c>
+      <c r="H43" s="74">
         <f>Sayfa1!H181</f>
         <v>22.332999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="10"/>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="10"/>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="10"/>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="10"/>
-      <c r="E47" s="47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="10"/>
-      <c r="E48" s="47"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="10"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="10"/>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="10"/>
-      <c r="E53" s="47"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="10"/>
-      <c r="E54" s="47"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="10"/>
-      <c r="E55" s="47"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="10"/>
-      <c r="E56" s="47"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="10"/>
-      <c r="E57" s="47"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="10"/>
-      <c r="E58" s="47"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="10"/>
-      <c r="E59" s="47"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="10"/>
-      <c r="E60" s="47"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="10"/>
-      <c r="E61" s="47"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="10"/>
-      <c r="E62" s="47"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="10"/>
-      <c r="E63" s="47"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="10"/>
-      <c r="E66" s="47"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="10"/>
-      <c r="E67" s="47"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="10"/>
-      <c r="E68" s="47"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="10"/>
-      <c r="E69" s="47"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="10"/>
-      <c r="E70" s="47"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="10"/>
-      <c r="E71" s="47"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="10"/>
-      <c r="E72" s="47"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="10"/>
-      <c r="E73" s="47"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="10"/>
-      <c r="E74" s="47"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="10"/>
-      <c r="E75" s="47"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="10"/>
-      <c r="E76" s="47"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="10"/>
-      <c r="E79" s="47"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="10"/>
-      <c r="E80" s="47"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="10"/>
-      <c r="E81" s="47"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="10"/>
-      <c r="E82" s="47"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="10"/>
-      <c r="E83" s="47"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="10"/>
-      <c r="E84" s="47"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="10"/>
-      <c r="E85" s="47"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="10"/>
-      <c r="E86" s="47"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="10"/>
-      <c r="E87" s="47"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="10"/>
-      <c r="E88" s="47"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="10"/>
-      <c r="E89" s="47"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="10"/>
-      <c r="E92" s="47"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="10"/>
-      <c r="E93" s="47"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="10"/>
-      <c r="E94" s="47"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="10"/>
-      <c r="E95" s="47"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="10"/>
-      <c r="E96" s="47"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="10"/>
-      <c r="E97" s="47"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="10"/>
-      <c r="E98" s="47"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="10"/>
-      <c r="E99" s="47"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="10"/>
-      <c r="E100" s="47"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="10"/>
-      <c r="E101" s="47"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="10"/>
-      <c r="E102" s="47"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="10"/>
-      <c r="E105" s="47"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="10"/>
-      <c r="E106" s="47"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="10"/>
-      <c r="E107" s="47"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="10"/>
-      <c r="E108" s="47"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="10"/>
-      <c r="E109" s="47"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="10"/>
-      <c r="E110" s="47"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="10"/>
-      <c r="E111" s="47"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="10"/>
-      <c r="E112" s="47"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="10"/>
-      <c r="E113" s="47"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="10"/>
-      <c r="E114" s="47"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="10"/>
-      <c r="E115" s="47"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="10"/>
-      <c r="E118" s="47"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="10"/>
-      <c r="E119" s="47"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="10"/>
-      <c r="E120" s="47"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="10"/>
-      <c r="E121" s="47"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="10"/>
-      <c r="E122" s="47"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="10"/>
-      <c r="E123" s="47"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="10"/>
-      <c r="E124" s="47"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="10"/>
-      <c r="E125" s="47"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="10"/>
-      <c r="E126" s="47"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="10"/>
-      <c r="E127" s="47"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="10"/>
-      <c r="E128" s="47"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="10"/>
-      <c r="E131" s="47"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="10"/>
-      <c r="E132" s="47"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="10"/>
-      <c r="E133" s="47"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="10"/>
-      <c r="E134" s="47"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="10"/>
-      <c r="E135" s="47"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="10"/>
-      <c r="E136" s="47"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="10"/>
-      <c r="E137" s="47"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="10"/>
-      <c r="E138" s="47"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="10"/>
-      <c r="E139" s="47"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="10"/>
-      <c r="E140" s="47"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="10"/>
-      <c r="E141" s="47"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="10"/>
-      <c r="E144" s="47"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="10"/>
-      <c r="E145" s="47"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="10"/>
-      <c r="E146" s="47"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="10"/>
-      <c r="E147" s="47"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="10"/>
-      <c r="E148" s="47"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="10"/>
-      <c r="E149" s="47"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="10"/>
-      <c r="E150" s="47"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="10"/>
-      <c r="E151" s="47"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="10"/>
-      <c r="E152" s="47"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="10"/>
-      <c r="E153" s="47"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="10"/>
-      <c r="E154" s="47"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="10"/>
-      <c r="E157" s="47"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="10"/>
-      <c r="E158" s="47"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="10"/>
-      <c r="E159" s="47"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="10"/>
-      <c r="E160" s="47"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="10"/>
-      <c r="E161" s="47"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="10"/>
-      <c r="E162" s="47"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="10"/>
-      <c r="E163" s="47"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="10"/>
-      <c r="E164" s="47"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="10"/>
-      <c r="E165" s="47"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="10"/>
-      <c r="E166" s="47"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="10"/>
-      <c r="E167" s="47"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="10"/>
-      <c r="E170" s="47"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="10"/>
-      <c r="E171" s="47"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="10"/>
-      <c r="E172" s="47"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="10"/>
-      <c r="E173" s="47"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="10"/>
-      <c r="E174" s="47"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="10"/>
-      <c r="E175" s="47"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="10"/>
-      <c r="E176" s="47"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="10"/>
-      <c r="E177" s="47"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="10"/>
-      <c r="E178" s="47"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="10"/>
-      <c r="E179" s="47"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="10"/>
-      <c r="E180" s="47"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="93">
+        <f>AVERAGE(H2:H43)</f>
+        <v>21.721452380952378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="8"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="8"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="106"/>
+      <c r="B54" s="107"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
+    </row>
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="113"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="116"/>
+    </row>
+    <row r="56" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="106"/>
+      <c r="B56" s="107"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="116"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="8"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="8"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="28"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="28"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="28"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="8"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="28"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="8"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="28"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="8"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="28"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="8"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="28"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="8"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="28"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="8"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="28"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="8"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="28"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="28"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="8"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="28"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="8"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="28"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="8"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="28"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="28"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="8"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="28"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="8"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="28"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="8"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="28"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="8"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="28"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="8"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="8"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
+      <c r="G85" s="28"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="8"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="28"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="8"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="28"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="8"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="28"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="8"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="28"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="8"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
+      <c r="G92" s="28"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="8"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="28"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="8"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="28"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="8"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="102"/>
+      <c r="G95" s="28"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="8"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="28"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="8"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="28"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="8"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="102"/>
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="8"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="28"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="8"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="28"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="8"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="28"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="8"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="102"/>
+      <c r="G104" s="28"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="8"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="102"/>
+      <c r="G105" s="28"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="8"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="28"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="8"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="28"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="8"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="102"/>
+      <c r="G108" s="28"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="8"/>
+      <c r="E109" s="102"/>
+      <c r="F109" s="102"/>
+      <c r="G109" s="28"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="8"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="28"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="8"/>
+      <c r="E111" s="102"/>
+      <c r="F111" s="102"/>
+      <c r="G111" s="28"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="8"/>
+      <c r="E112" s="102"/>
+      <c r="F112" s="102"/>
+      <c r="G112" s="28"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="8"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="102"/>
+      <c r="G113" s="28"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="8"/>
+      <c r="E114" s="102"/>
+      <c r="F114" s="102"/>
+      <c r="G114" s="28"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="8"/>
+      <c r="E117" s="102"/>
+      <c r="F117" s="102"/>
+      <c r="G117" s="28"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="8"/>
+      <c r="E118" s="102"/>
+      <c r="F118" s="102"/>
+      <c r="G118" s="28"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="8"/>
+      <c r="E119" s="102"/>
+      <c r="F119" s="102"/>
+      <c r="G119" s="28"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="8"/>
+      <c r="E120" s="102"/>
+      <c r="F120" s="102"/>
+      <c r="G120" s="28"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="8"/>
+      <c r="E121" s="102"/>
+      <c r="F121" s="102"/>
+      <c r="G121" s="28"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="8"/>
+      <c r="E122" s="102"/>
+      <c r="F122" s="102"/>
+      <c r="G122" s="28"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="8"/>
+      <c r="E123" s="102"/>
+      <c r="F123" s="102"/>
+      <c r="G123" s="28"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="8"/>
+      <c r="E124" s="102"/>
+      <c r="F124" s="102"/>
+      <c r="G124" s="28"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="8"/>
+      <c r="E125" s="102"/>
+      <c r="F125" s="102"/>
+      <c r="G125" s="28"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="8"/>
+      <c r="E126" s="102"/>
+      <c r="F126" s="102"/>
+      <c r="G126" s="28"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="8"/>
+      <c r="E127" s="102"/>
+      <c r="F127" s="102"/>
+      <c r="G127" s="28"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="8"/>
+      <c r="E130" s="102"/>
+      <c r="F130" s="102"/>
+      <c r="G130" s="28"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="8"/>
+      <c r="E131" s="102"/>
+      <c r="F131" s="102"/>
+      <c r="G131" s="28"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="8"/>
+      <c r="E132" s="102"/>
+      <c r="F132" s="102"/>
+      <c r="G132" s="28"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="8"/>
+      <c r="E133" s="102"/>
+      <c r="F133" s="102"/>
+      <c r="G133" s="28"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="8"/>
+      <c r="E134" s="102"/>
+      <c r="F134" s="102"/>
+      <c r="G134" s="28"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="8"/>
+      <c r="E135" s="102"/>
+      <c r="F135" s="102"/>
+      <c r="G135" s="28"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="8"/>
+      <c r="E136" s="102"/>
+      <c r="F136" s="102"/>
+      <c r="G136" s="28"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="8"/>
+      <c r="E137" s="102"/>
+      <c r="F137" s="102"/>
+      <c r="G137" s="28"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="8"/>
+      <c r="E138" s="102"/>
+      <c r="F138" s="102"/>
+      <c r="G138" s="28"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="8"/>
+      <c r="E139" s="102"/>
+      <c r="F139" s="102"/>
+      <c r="G139" s="28"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="8"/>
+      <c r="E140" s="102"/>
+      <c r="F140" s="102"/>
+      <c r="G140" s="28"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="8"/>
+      <c r="E143" s="102"/>
+      <c r="F143" s="102"/>
+      <c r="G143" s="28"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="8"/>
+      <c r="E144" s="102"/>
+      <c r="F144" s="102"/>
+      <c r="G144" s="28"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="8"/>
+      <c r="E145" s="102"/>
+      <c r="F145" s="102"/>
+      <c r="G145" s="28"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="8"/>
+      <c r="E146" s="102"/>
+      <c r="F146" s="102"/>
+      <c r="G146" s="28"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" s="8"/>
+      <c r="E147" s="102"/>
+      <c r="F147" s="102"/>
+      <c r="G147" s="28"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="8"/>
+      <c r="E148" s="102"/>
+      <c r="F148" s="102"/>
+      <c r="G148" s="28"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="8"/>
+      <c r="E149" s="102"/>
+      <c r="F149" s="102"/>
+      <c r="G149" s="28"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="8"/>
+      <c r="E150" s="102"/>
+      <c r="F150" s="102"/>
+      <c r="G150" s="28"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="8"/>
+      <c r="E151" s="102"/>
+      <c r="F151" s="102"/>
+      <c r="G151" s="28"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="8"/>
+      <c r="E152" s="102"/>
+      <c r="F152" s="102"/>
+      <c r="G152" s="28"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="8"/>
+      <c r="E153" s="102"/>
+      <c r="F153" s="102"/>
+      <c r="G153" s="28"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="8"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="28"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="8"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="28"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="8"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="28"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="8"/>
+      <c r="E159" s="102"/>
+      <c r="F159" s="102"/>
+      <c r="G159" s="28"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="8"/>
+      <c r="E160" s="102"/>
+      <c r="F160" s="102"/>
+      <c r="G160" s="28"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="8"/>
+      <c r="E161" s="102"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="28"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="8"/>
+      <c r="E162" s="102"/>
+      <c r="F162" s="102"/>
+      <c r="G162" s="28"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="8"/>
+      <c r="E163" s="102"/>
+      <c r="F163" s="102"/>
+      <c r="G163" s="28"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="8"/>
+      <c r="E164" s="102"/>
+      <c r="F164" s="102"/>
+      <c r="G164" s="28"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="8"/>
+      <c r="E165" s="102"/>
+      <c r="F165" s="102"/>
+      <c r="G165" s="28"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="8"/>
+      <c r="E166" s="102"/>
+      <c r="F166" s="102"/>
+      <c r="G166" s="28"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="8"/>
+      <c r="E169" s="102"/>
+      <c r="F169" s="102"/>
+      <c r="G169" s="28"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="8"/>
+      <c r="E170" s="102"/>
+      <c r="F170" s="102"/>
+      <c r="G170" s="28"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="8"/>
+      <c r="E171" s="102"/>
+      <c r="F171" s="102"/>
+      <c r="G171" s="28"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="8"/>
+      <c r="E172" s="102"/>
+      <c r="F172" s="102"/>
+      <c r="G172" s="28"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="8"/>
+      <c r="E173" s="102"/>
+      <c r="F173" s="102"/>
+      <c r="G173" s="28"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="8"/>
+      <c r="E174" s="102"/>
+      <c r="F174" s="102"/>
+      <c r="G174" s="28"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="8"/>
+      <c r="E175" s="102"/>
+      <c r="F175" s="102"/>
+      <c r="G175" s="28"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="8"/>
+      <c r="E176" s="102"/>
+      <c r="F176" s="102"/>
+      <c r="G176" s="28"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" s="8"/>
+      <c r="E177" s="102"/>
+      <c r="F177" s="102"/>
+      <c r="G177" s="28"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="8"/>
+      <c r="E178" s="102"/>
+      <c r="F178" s="102"/>
+      <c r="G178" s="28"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="8"/>
+      <c r="E179" s="102"/>
+      <c r="F179" s="102"/>
+      <c r="G179" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="11" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>